--- a/data/AnonymizedData.xlsx
+++ b/data/AnonymizedData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C12789-6BAB-4BF1-AD83-52557D8703E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BF4192-2E61-4B28-896A-D7E4D653638F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,21 +76,12 @@
     <t>Satisfaction</t>
   </si>
   <si>
-    <t>Easeness</t>
-  </si>
-  <si>
     <t>Learnability</t>
   </si>
   <si>
     <t>Transparency</t>
   </si>
   <si>
-    <t>Usefulness</t>
-  </si>
-  <si>
-    <t>Error prone</t>
-  </si>
-  <si>
     <t>Complexity Management</t>
   </si>
   <si>
@@ -137,6 +128,15 @@
   </si>
   <si>
     <t>Realmente ha sido muy útil</t>
+  </si>
+  <si>
+    <t>Ease of use</t>
+  </si>
+  <si>
+    <t>Applicability</t>
+  </si>
+  <si>
+    <t>Error proneness</t>
   </si>
 </sst>
 </file>
@@ -144,7 +144,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1601,16 +1601,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,34 +1903,34 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1971,7 +1971,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2133,7 +2133,7 @@
         <v>5</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -2334,7 +2334,7 @@
         <v>5</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
